--- a/storage/app/public/templates/DCxKlHfNoJ9SXMseOLJY7VtNR6XPxrtf9jVVnI2k.xlsx
+++ b/storage/app/public/templates/DCxKlHfNoJ9SXMseOLJY7VtNR6XPxrtf9jVVnI2k.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhlis/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhlis/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29B31D-67EA-9E42-89E8-97119949091A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D47F43-FC18-EA40-9353-68491039CBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="2520" windowWidth="28040" windowHeight="17440" xr2:uid="{FC6F4FC3-ED75-0D4E-9B66-2057C0FED80B}"/>
   </bookViews>
@@ -2900,9 +2900,6 @@
     <t>630722090074</t>
   </si>
   <si>
-    <t>6.30707E+15</t>
-  </si>
-  <si>
     <t>630724100032</t>
   </si>
   <si>
@@ -3774,6 +3771,9 @@
   </si>
   <si>
     <t>630724100024</t>
+  </si>
+  <si>
+    <t>6307066009020010</t>
   </si>
 </sst>
 </file>
@@ -4148,8 +4148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A341316-7B8D-5F4E-AACF-63C0D47886A2}">
   <dimension ref="A1:D312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>955</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>334</v>
@@ -6500,10 +6500,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>336</v>
@@ -6514,10 +6514,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>338</v>
@@ -6528,10 +6528,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>960</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>340</v>
@@ -6542,10 +6542,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>342</v>
@@ -6556,10 +6556,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>344</v>
@@ -6570,10 +6570,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>346</v>
@@ -6584,10 +6584,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>348</v>
@@ -6598,10 +6598,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>971</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>350</v>
@@ -6612,10 +6612,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>352</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>354</v>
@@ -6640,10 +6640,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>977</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>356</v>
@@ -6654,10 +6654,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>978</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>979</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>358</v>
@@ -6668,10 +6668,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>981</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>360</v>
@@ -6682,10 +6682,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>982</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>983</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>362</v>
@@ -6696,10 +6696,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>984</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>985</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>364</v>
@@ -6710,10 +6710,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>366</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>988</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>989</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>368</v>
@@ -6738,10 +6738,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>990</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>370</v>
@@ -6752,10 +6752,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>372</v>
@@ -6766,10 +6766,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>995</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>374</v>
@@ -6780,10 +6780,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>996</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>376</v>
@@ -6794,10 +6794,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>999</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>378</v>
@@ -6808,10 +6808,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>1000</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>1001</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>380</v>
@@ -6822,10 +6822,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>1003</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>382</v>
@@ -6836,10 +6836,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>1005</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>384</v>
@@ -6850,10 +6850,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>1006</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>386</v>
@@ -6864,10 +6864,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>1008</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>388</v>
@@ -6878,10 +6878,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>1011</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>108</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>1013</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>391</v>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>1015</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>393</v>
@@ -6920,10 +6920,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>1017</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>395</v>
@@ -6934,10 +6934,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>397</v>
@@ -6948,10 +6948,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>399</v>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>298</v>
@@ -6976,10 +6976,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>402</v>
@@ -6990,10 +6990,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>404</v>
@@ -7004,10 +7004,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>406</v>
@@ -7018,10 +7018,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>408</v>
@@ -7032,10 +7032,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>410</v>
@@ -7046,10 +7046,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>1035</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>412</v>
@@ -7060,10 +7060,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>414</v>
@@ -7074,10 +7074,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>416</v>
@@ -7088,10 +7088,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>1041</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>418</v>
@@ -7102,10 +7102,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>420</v>
@@ -7116,10 +7116,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>1045</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>422</v>
@@ -7130,10 +7130,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>1047</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -7144,10 +7144,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>1048</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>1049</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
@@ -7158,10 +7158,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>1051</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>428</v>
@@ -7172,10 +7172,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>430</v>
@@ -7186,10 +7186,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>1055</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>432</v>
@@ -7200,10 +7200,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>434</v>
@@ -7214,10 +7214,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>436</v>
@@ -7228,10 +7228,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>438</v>
@@ -7242,10 +7242,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>440</v>
@@ -7256,10 +7256,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>442</v>
@@ -7270,10 +7270,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>444</v>
@@ -7284,10 +7284,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>446</v>
@@ -7298,10 +7298,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>448</v>
@@ -7312,10 +7312,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>1073</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>450</v>
@@ -7326,10 +7326,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>1074</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>452</v>
@@ -7340,10 +7340,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>1077</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>454</v>
@@ -7354,10 +7354,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>456</v>
@@ -7368,10 +7368,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>458</v>
@@ -7382,10 +7382,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>460</v>
@@ -7396,10 +7396,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>462</v>
@@ -7410,10 +7410,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>464</v>
@@ -7424,10 +7424,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>466</v>
@@ -7438,10 +7438,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>468</v>
@@ -7452,10 +7452,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>470</v>
@@ -7466,10 +7466,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>472</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>474</v>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>1099</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>476</v>
@@ -7508,10 +7508,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>1101</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>478</v>
@@ -7522,10 +7522,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>480</v>
@@ -7536,10 +7536,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>482</v>
@@ -7550,10 +7550,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>484</v>
@@ -7564,10 +7564,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>486</v>
@@ -7578,10 +7578,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>488</v>
@@ -7592,10 +7592,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>490</v>
@@ -7606,10 +7606,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>1115</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>492</v>
@@ -7620,10 +7620,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>1117</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>494</v>
@@ -7634,10 +7634,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>1119</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>496</v>
@@ -7648,10 +7648,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>498</v>
@@ -7662,10 +7662,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>500</v>
@@ -7676,10 +7676,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>1125</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>502</v>
@@ -7690,10 +7690,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>1127</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>504</v>
@@ -7704,10 +7704,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>506</v>
@@ -7718,10 +7718,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>508</v>
@@ -7732,10 +7732,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>510</v>
@@ -7746,10 +7746,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>1135</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>512</v>
@@ -7760,10 +7760,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>514</v>
@@ -7774,10 +7774,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>516</v>
@@ -7788,10 +7788,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>1141</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>518</v>
@@ -7802,10 +7802,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>520</v>
@@ -7816,10 +7816,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>522</v>
@@ -7830,10 +7830,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>524</v>
@@ -7844,10 +7844,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>526</v>
@@ -7858,10 +7858,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>1151</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>528</v>
@@ -7872,10 +7872,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>530</v>
@@ -7886,10 +7886,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>532</v>
@@ -7900,10 +7900,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>534</v>
@@ -7914,10 +7914,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>536</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>538</v>
@@ -7942,10 +7942,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>540</v>
@@ -7956,10 +7956,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>1165</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>542</v>
@@ -7970,10 +7970,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>544</v>
@@ -7984,10 +7984,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>546</v>
@@ -7998,10 +7998,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>1171</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>548</v>
@@ -8012,10 +8012,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>1172</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>1173</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>550</v>
@@ -8026,10 +8026,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>1175</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>552</v>
@@ -8040,10 +8040,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>554</v>
@@ -8054,10 +8054,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>556</v>
@@ -8068,10 +8068,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>1181</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>558</v>
@@ -8082,10 +8082,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>1183</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>560</v>
@@ -8096,10 +8096,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>1184</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>1185</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>562</v>
@@ -8110,10 +8110,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>1187</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>564</v>
@@ -8124,10 +8124,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>1189</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>566</v>
@@ -8138,10 +8138,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>1191</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>568</v>
@@ -8152,10 +8152,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>1193</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>570</v>
@@ -8166,10 +8166,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>1195</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>572</v>
@@ -8180,10 +8180,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>574</v>
@@ -8194,10 +8194,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>1199</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>576</v>
@@ -8208,10 +8208,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>1201</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>578</v>
@@ -8222,10 +8222,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>1202</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>1203</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>580</v>
@@ -8236,10 +8236,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>1205</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>582</v>
@@ -8250,10 +8250,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>1206</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>1207</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>584</v>
@@ -8264,10 +8264,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>1209</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>586</v>
@@ -8278,10 +8278,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>1210</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>1211</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>588</v>
@@ -8292,10 +8292,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>1212</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>1213</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>590</v>
@@ -8306,10 +8306,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>1214</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>592</v>
@@ -8320,10 +8320,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>1217</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>594</v>
@@ -8334,10 +8334,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>1219</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>596</v>
@@ -8348,10 +8348,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>1220</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>1221</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>598</v>
@@ -8362,10 +8362,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>1222</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>1223</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>600</v>
@@ -8376,10 +8376,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>1225</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>602</v>
@@ -8390,10 +8390,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>1226</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>1227</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>604</v>
@@ -8404,10 +8404,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>1228</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>1229</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>606</v>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>1230</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>1231</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>608</v>
@@ -8432,10 +8432,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>1233</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>610</v>
@@ -8446,10 +8446,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>1235</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>612</v>
@@ -8460,10 +8460,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>1237</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>614</v>
@@ -8474,10 +8474,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>1239</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>616</v>
@@ -8488,10 +8488,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>1241</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>618</v>
@@ -8502,10 +8502,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>1242</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1243</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>620</v>
@@ -8516,10 +8516,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>1245</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>622</v>
